--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 연표.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 연표.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,14 +601,560 @@
           <t>혜공왕 : 768년</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>20230330</t>
-        </is>
+      <c r="D7" t="n">
+        <v>20230330</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>10시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>통일신라 김범문의 난</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">신문왕 </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>헌덕왕 : 822년</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>16시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>백제 멸망</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">의자왕 </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>무열왕 : 660년</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>16시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>통일신라 성덕대왕신종 완성</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">경덕왕 </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>혜공왕 : 768년</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>17시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>당의 안동도호부 설치</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>668년 : 문무왕</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>17시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>통일신라 성덕대왕신종 완성</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">경덕왕 </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>혜공왕 : 768년</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>17시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>통일신라 김범문의 난</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">문성왕 </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>헌덕왕 : 822년</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>17시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>통일신라 장보고의 난</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">헌덕왕 </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>문성왕 : 834년</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>17시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>통일신라 김범문의 난</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">혜공왕 </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>헌덕왕 : 822년</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>17시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>신라 황룡사 건립</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">문무왕 </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>진흥왕 : 567년</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>17시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>고구려 율령 반포</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">384년 </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>373년 : 소수림왕</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>17시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>고구려 천리장성 완성</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">644년 </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>647년 : 보장왕</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>17시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>신라 창녕비 건립</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>진흥왕 : 551년</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>진흥왕 : 555년</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>17시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>의상 부석사 건립</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">선덕여왕 </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>문무왕 : 675년</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>18시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>백제 아신왕 고구려에 항복</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">457년 </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>396년 : 광개토대왕</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>18시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>고구려 태학 설립</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">375년 </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>372년 : 소수림왕</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>18시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>발해 중경에서 상경 천도</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">선왕 </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>문왕 : 751년</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>18시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>고구려 태학 설립</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">612년 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>372년 : 소수림왕</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>18시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>신라 품주 설치</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">법흥왕 </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>진흥왕 : 562년</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>18시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>나제 동맹 체결</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">371년 </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>433년 : 눌지왕</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>18시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>백제 무령왕릉 축조</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">문주왕 </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>성왕 : 525년</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>18시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>발해 나당 견제위해 일본에 사신 파견</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">문왕 </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>무왕 : 725년</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>18시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>신라 거칠부 국사 편찬</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">552년 </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>545년 : 진흥왕</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>20230331</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>18시 17분</t>
         </is>
       </c>
     </row>
